--- a/public/uploads/oef.xlsx
+++ b/public/uploads/oef.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0FF7D5F-CA86-4079-BD81-96B5D94F045B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC7CA3B-6DE7-4AC1-A031-96F8A2E01B34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="oef" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -31,22 +31,7 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>quantity_to_allocate</t>
-  </si>
-  <si>
-    <t>remaining_qty_after_cancel</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
     <t>discount</t>
-  </si>
-  <si>
-    <t>gst</t>
-  </si>
-  <si>
-    <t>coef_status</t>
   </si>
   <si>
     <t>created_at</t>
@@ -73,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -908,19 +893,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -936,28 +922,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -965,31 +936,16 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>1351</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>11</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>45109.952476851853</v>
+      <c r="E2" s="1">
+        <v>45109.95208333333</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -997,63 +953,33 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>1246</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>45109.971319444441</v>
+      <c r="E3" s="1">
+        <v>45109.970833333333</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>1660</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>45131.759409722225</v>
+      <c r="E4" s="1">
+        <v>45131.759027777778</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1061,31 +987,16 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1660</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>45131.759409722225</v>
+      <c r="E5" s="1">
+        <v>45131.759027777778</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -1093,31 +1004,16 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>1351</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>11</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="E6" s="1">
         <v>45133.909722222219</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1125,22 +1021,7 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1246</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>11</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="E7" s="1">
         <v>45133.909722222219</v>
       </c>
     </row>
